--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_AddConversation_6.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_AddConversation_6.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,16 +46,25 @@
     <t>王国信</t>
   </si>
   <si>
+    <t>WangGuoXin</t>
+  </si>
+  <si>
+    <t>这是“韩信点兵”，当茶水快倒尽时，将余下的水滴入三个茶杯。</t>
+  </si>
+  <si>
+    <t>This is 'Han Xin Counting Soldiers.' When the tea is nearly finished, pour the remaining drops into three teacups.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>这是“韩信点兵”，当茶水快倒尽时，将余下的水滴入三个茶杯。</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>下一步</t>
+  </si>
+  <si>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1008,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1029,21 +1038,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
